--- a/fuentes/contenidos/grado06/guion07/Escaleta CN_06_07_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion07/Escaleta CN_06_07_CO.xlsx
@@ -13,13 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Modificaciones en la ecaleta" sheetId="3" r:id="rId2"/>
+    <sheet name="CN_06_07_CO" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Modificaciones en la ecaleta'!$A$2:$U$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CN_06_07_CO!$A$2:$U$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1041,34 +1041,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,16 +1080,16 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3374,8 +3374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3404,94 +3404,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="35" t="s">
         <v>113</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="29"/>
+      <c r="O1" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="27" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="36"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="38"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="31"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="10" t="s">
         <v>92</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="40"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="27"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">

--- a/fuentes/contenidos/grado06/guion07/Escaleta CN_06_07_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion07/Escaleta CN_06_07_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="244">
   <si>
     <t>Asignatura</t>
   </si>
@@ -757,6 +757,9 @@
   </si>
   <si>
     <t>Actividad que guía el trabajo colaborativo sobre el reconocimiento de los componentes de algunos ecosistemas a partir de experiencias previas</t>
+  </si>
+  <si>
+    <t>Practica Los factores abióticos de los ecosistemas</t>
   </si>
 </sst>
 </file>
@@ -990,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1091,6 +1094,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3375,7 +3382,7 @@
   <dimension ref="A1:U117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4019,7 +4026,7 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="14" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="H13" s="15">
         <v>8</v>
@@ -4077,7 +4084,7 @@
         <v>157</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="43" t="s">
         <v>158</v>
       </c>
       <c r="H14" s="15">
@@ -4086,17 +4093,17 @@
       <c r="I14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13" t="s">
+      <c r="M14" s="11"/>
+      <c r="N14" s="11" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="6"/>
